--- a/DS_Mystery/Asia stock management/Потребность АЛМ 2023-06-12.xlsx
+++ b/DS_Mystery/Asia stock management/Потребность АЛМ 2023-06-12.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Черноиванова Марина': ['ТОО Magnum Cash&amp;Carry', 'Chaplin кинотеатр'], 'Махмутова Шахида Пархатовна': ['ЧЛ Олжас', 'ТОО "LEAD PARTNERS"']}</t>
+          <t>Проверить заказы: {'Черноиванова Марина': ['ТОО Magnum Cash&amp;Carry', 'Chaplin кинотеатр'], 'Махмутова Шахида Пархатовна': ['ТОО "LEAD PARTNERS"', 'ЧЛ Олжас']}</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента Ирмас Лтд ТОО менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['TOO "Новая страна"'], 'Багланов Ербол': ['ЧЛ Муратов Тилек Муратулы']}</t>
+          <t>Опасная позиция, проверить!: {'Багланов Ербол': ['ЧЛ Муратов Тилек Муратулы'], 'Махмутова Шахида Пархатовна': ['TOO "Новая страна"']}</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ТОО ASTER AUTO («АСТЭР АВТО»)', 'TOO "Новая страна"', 'ИП VEND CLUB', 'ЧЛ Елена', 'ИП Гончаров Роман Алексеевич', 'COFFEEVARKA Kazakhstan'], 'Былина Евгения Николаевна': ['ЧЛ Сотрудники'], 'Багланов Ербол': ['ЧЛ Алишер Кофейня', 'ЧЛ Аружан']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['COFFEEVARKA Kazakhstan', 'ИП Гончаров Роман Алексеевич', 'ТОО ASTER AUTO («АСТЭР АВТО»)', 'TOO "Новая страна"', 'ИП VEND CLUB', 'ЧЛ Елена'], 'Багланов Ербол': ['ЧЛ Алишер Кофейня', 'ЧЛ Аружан'], 'Былина Евгения Николаевна': ['ЧЛ Сотрудники']}</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['Chaplin кинотеатр'], 'Сулайманов Музафер Раимович': ['TOO "Наш пакет"'], 'Багланов Ербол': ['ЧЛ Адал Кофейня']}</t>
+          <t>Опасная позиция, проверить!: {'Багланов Ербол': ['ЧЛ Адал Кофейня'], 'Черноиванова Марина': ['Chaplin кинотеатр'], 'Сулайманов Музафер Раимович': ['TOO "Наш пакет"']}</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП Таскинбаева А.А.', 'ИП "SARANG"'], 'Сулайманов Музафер Раимович': ['TOO "Наш пакет"']}</t>
+          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП "SARANG"', 'ИП Таскинбаева А.А.'], 'Сулайманов Музафер Раимович': ['TOO "Наш пакет"']}</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ЧЛ Алена BISON', 'ЧЛ Закир', 'ЧЛ Лаура саше']}</t>
+          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ЧЛ Лаура саше', 'ЧЛ Алена BISON', 'ЧЛ Закир']}</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['Ирмас Лтд ТОО'], 'Былина Евгения Николаевна': ['TOO "ХАВИ Казахстан"']}</t>
+          <t>Проверить заказы: {'Былина Евгения Николаевна': ['TOO "ХАВИ Казахстан"'], 'Махмутова Шахида Пархатовна': ['Ирмас Лтд ТОО']}</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента TOO "ХАВИ Казахстан" менеджера Былина Евгения Николаевна</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ИП "Дзауров"', 'ТОО BARUSH', 'TOO "Новая страна"']}</t>
+          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ТОО BARUSH', 'TOO "Новая страна"', 'ИП "Дзауров"']}</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ИП "JANAFOOD"', 'ТОО Mfood.kz'], 'Соловьев Дмитрий Николаевич': ['ТОО "Sultan EX"'], 'Черноиванова Марина': ['ИП Таскинбаева А.А.']}</t>
+          <t>Опасная позиция, проверить!: {'Соловьев Дмитрий Николаевич': ['ТОО "Sultan EX"'], 'Махмутова Шахида Пархатовна': ['ТОО Mfood.kz', 'ИП "JANAFOOD"'], 'Черноиванова Марина': ['ИП Таскинбаева А.А.']}</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ Виктор менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Багланов Ербол': ['ЧЛ Алишер Кофейня'], 'Махмутова Шахида Пархатовна': ['ИП KETODRIVE KZ', 'Ходжаев Руслан']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ИП KETODRIVE KZ', 'Ходжаев Руслан'], 'Багланов Ербол': ['ЧЛ Алишер Кофейня']}</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Сулайманов Музафер Раимович': [' ИП "SALAD BAR"', 'ИП ЭЙС'], 'Черноиванова Марина': ['ИП "Гарант Сервис"'], 'Махмутова Шахида Пархатовна': ['ЧЛ Лаура саше']}</t>
+          <t>Проверить заказы: {'Сулайманов Музафер Раимович': [' ИП "SALAD BAR"', 'ИП ЭЙС'], 'Махмутова Шахида Пархатовна': ['ЧЛ Лаура саше'], 'Черноиванова Марина': ['ИП "Гарант Сервис"']}</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Сулайманов Музафер Раимович': ['Arbuz Group (Арбуз Груп)'], 'Соловьев Дмитрий Николаевич': ['ТОО "LA TARTINE"']}</t>
+          <t>Опасная позиция, проверить!: {'Соловьев Дмитрий Николаевич': ['ТОО "LA TARTINE"'], 'Сулайманов Музафер Раимович': ['Arbuz Group (Арбуз Груп)']}</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['Товарищество с ограниченной ответсвенностью Светогор'], 'Черноиванова Марина': ['ТОО Парасат Продукт']}</t>
+          <t>Проверить заказы: {'Черноиванова Марина': ['ТОО Парасат Продукт'], 'Махмутова Шахида Пархатовна': ['Товарищество с ограниченной ответсвенностью Светогор']}</t>
         </is>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ УСЕНОВ НУРСУЛТАН менеджера Осетров Иван Александрович</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Соловьев Дмитрий Николаевич': ['Alterra Inn'], 'Махмутова Шахида Пархатовна': ['Ирмас Лтд ТОО'], 'Черноиванова Марина': ['ИП Таскинбаева А.А.']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['Ирмас Лтд ТОО'], 'Соловьев Дмитрий Николаевич': ['Alterra Inn'], 'Черноиванова Марина': ['ИП Таскинбаева А.А.']}</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО Magnum Cash&amp;Carry менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ЧЛ Алия рыбалка', 'ЧЛ Ахмет ведра'], 'Черноиванова Марина': ['ИП Шатманова'], 'Багланов Ербол': ['ЧЛ Бекмуратова Мереке Абдуллаевна'], 'Сулайманов Музафер Раимович': ['Чл Олеся магазин']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ЧЛ Ахмет ведра', 'ЧЛ Алия рыбалка'], 'Черноиванова Марина': ['ИП Шатманова'], 'Багланов Ербол': ['ЧЛ Бекмуратова Мереке Абдуллаевна'], 'Сулайманов Музафер Раимович': ['Чл Олеся магазин']}</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО АЯМ менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Багланов Ербол': ['ЧЛ Гульзина ГРЭС'], 'Махмутова Шахида Пархатовна': ['ТОО BARUSH'], 'Черноиванова Марина': ['ИП "Adilya"']}</t>
+          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ТОО BARUSH'], 'Черноиванова Марина': ['ИП "Adilya"'], 'Багланов Ербол': ['ЧЛ Гульзина ГРЭС']}</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ТОО "Grand Fast Food"', 'Чл Павел Химия и хозтовары'], 'Махмутова Шахида Пархатовна': ['ТОО "Алга Экспресс"'], 'Багланов Ербол': ['ЧЛ Гульзина ГРЭС'], 'Сулайманов Музафер Раимович': ['Etipak Алматы ТОО']}</t>
+          <t>Опасная позиция, проверить!: {'Сулайманов Музафер Раимович': ['Etipak Алматы ТОО'], 'Черноиванова Марина': ['ТОО "Grand Fast Food"', 'Чл Павел Химия и хозтовары'], 'Багланов Ербол': ['ЧЛ Гульзина ГРЭС'], 'Махмутова Шахида Пархатовна': ['ТОО "Алга Экспресс"']}</t>
         </is>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента TOO "King Kong Sushi" менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['Stakan.kz', 'Чл Бота кофейня Авиатор', 'ТОО SmartPack'], 'Черноиванова Марина': ['ИП "Adilya"'], 'Соловьев Дмитрий Николаевич': ['ЧЛ Бурхандин']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['Stakan.kz', 'ТОО SmartPack', 'Чл Бота кофейня Авиатор'], 'Соловьев Дмитрий Николаевич': ['ЧЛ Бурхандин'], 'Черноиванова Марина': ['ИП "Adilya"']}</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ТОО "ШОМ-Н"', 'ТОО "RG Brands Kazakhstan"', 'ЧЛ Алия рыбалка'], 'Черноиванова Марина': ['"АльянсФаворит" ИП', 'NEKAR FOODS', 'ЧЛ Ольга доставка'], 'Багланов Ербол': ['ЧЛ Бекмуратова Мереке Абдуллаевна']}</t>
+          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['"АльянсФаворит" ИП', 'NEKAR FOODS', 'ЧЛ Ольга доставка'], 'Махмутова Шахида Пархатовна': ['ТОО "RG Brands Kazakhstan"', 'ТОО "ШОМ-Н"', 'ЧЛ Алия рыбалка'], 'Багланов Ербол': ['ЧЛ Бекмуратова Мереке Абдуллаевна']}</t>
         </is>
       </c>
     </row>
@@ -4121,7 +4121,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента TOO "Жигалма" менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ТОО "ШОМ-Н"'], 'Черноиванова Марина': ['"АльянсФаворит" ИП', 'NEKAR FOODS', 'ЧЛ Абишева']}</t>
+          <t>Проверить заказы: {'Черноиванова Марина': ['"АльянсФаворит" ИП', 'NEKAR FOODS', 'ЧЛ Абишева'], 'Махмутова Шахида Пархатовна': ['ТОО "ШОМ-Н"']}</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП "Adilya"', 'ТОО "Office-Expert.kz"'], 'Махмутова Шахида Пархатовна': ['ТОО BARUSH'], 'Сулайманов Музафер Раимович': ['Общественная  Организация "Хабад Любавич"']}</t>
+          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ТОО "Office-Expert.kz"', 'ИП "Adilya"'], 'Махмутова Шахида Пархатовна': ['ТОО BARUSH'], 'Сулайманов Музафер Раимович': ['Общественная  Организация "Хабад Любавич"']}</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['АО "Евразийский банк"', 'ПИРАМИДА ТОО', 'ТОО Kubarik.kz'], 'Черноиванова Марина': ['ИП "Adilya"', 'ТОО "Office-Expert.kz"', 'ЧЛ Павел Кофейня', 'ИП "Гарант Сервис"']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ПИРАМИДА ТОО', 'АО "Евразийский банк"', 'ТОО Kubarik.kz'], 'Черноиванова Марина': ['ТОО "Office-Expert.kz"', 'ИП "Гарант Сервис"', 'ИП "Adilya"', 'ЧЛ Павел Кофейня']}</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ПолимерМеталл-Т менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ПолимерМеталл-Т менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ПолимерМеталл-Т менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ПолимерМеталл-Т менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['TOO "Новая страна"'], 'Черноиванова Марина': ['ТОО "Office-Expert.kz"']}</t>
+          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ТОО "Office-Expert.kz"'], 'Махмутова Шахида Пархатовна': ['TOO "Новая страна"']}</t>
         </is>
       </c>
     </row>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['COFFEEVARKA Kazakhstan'], 'Черноиванова Марина': ['ИП Таскинбаева А.А.'], 'Былина Евгения Николаевна': ['TOO "ХАВИ Казахстан"']}</t>
+          <t>Опасная позиция, проверить!: {'Былина Евгения Николаевна': ['TOO "ХАВИ Казахстан"'], 'Махмутова Шахида Пархатовна': ['COFFEEVARKA Kazakhstan'], 'Черноиванова Марина': ['ИП Таскинбаева А.А.']}</t>
         </is>
       </c>
     </row>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ИП "Панфилова"', 'ТОО BARUSH'], 'Сулайманов Музафер Раимович': ['Etipak Алматы ТОО']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ТОО BARUSH', 'ИП "Панфилова"'], 'Сулайманов Музафер Раимович': ['Etipak Алматы ТОО']}</t>
         </is>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО "Zhamilya Trade Company" менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО "Zhamilya Trade Company" менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Сулайманов Музафер Раимович': ['Etipak Алматы ТОО'], 'Махмутова Шахида Пархатовна': ['ТОО "LEAD PARTNERS"', 'ТОО BARUSH']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ТОО BARUSH', 'ТОО "LEAD PARTNERS"'], 'Сулайманов Музафер Раимович': ['Etipak Алматы ТОО']}</t>
         </is>
       </c>
     </row>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО "Zhamilya Trade Company" менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -6266,7 +6266,7 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ПолимерМеталл-Т менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО KOKETAI менеджера Сулайманов Музафер Раимович</t>
         </is>
       </c>
     </row>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП "DETOXME"'], 'Махмутова Шахида Пархатовна': ['ИП KETODRIVE KZ', 'ТОО Табея']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ИП KETODRIVE KZ', 'ТОО Табея'], 'Черноиванова Марина': ['ИП "DETOXME"']}</t>
         </is>
       </c>
     </row>
@@ -6596,7 +6596,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента TOO "ХАВИ Казахстан" менеджера Былина Евгения Николаевна</t>
         </is>
       </c>
     </row>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ЧЛ Закир', 'ЧЛ Лаура саше']}</t>
+          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ЧЛ Лаура саше', 'ЧЛ Закир']}</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6816,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Сулайманов Музафер Раимович': ['Arbuz Group (Арбуз Груп)', 'Соседи Российские двери'], 'Черноиванова Марина': ['ИП КУЛИНАРНАЯ МАСТЕРСКАЯ ВЕРЫ БОГЕР'], 'Махмутова Шахида Пархатовна': ['ТОО "Гостиница Жетысу"']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ТОО "Гостиница Жетысу"'], 'Черноиванова Марина': ['ИП КУЛИНАРНАЯ МАСТЕРСКАЯ ВЕРЫ БОГЕР'], 'Сулайманов Музафер Раимович': ['Arbuz Group (Арбуз Груп)', 'Соседи Российские двери']}</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7146,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Соловьев Дмитрий Николаевич': ['ТОО "Барик KZ"'], 'Черноиванова Марина': ['ИП Таскинбаева А.А.']}</t>
+          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП Таскинбаева А.А.'], 'Соловьев Дмитрий Николаевич': ['ТОО "Барик KZ"']}</t>
         </is>
       </c>
     </row>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО "Zhamilya Trade Company" менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ИП KETODRIVE KZ', 'ТОО "Fibonnacci VEG FOOD"', 'ТОО "Алга Экспресс"', 'ИП "SILA"'], 'Соловьев Дмитрий Николаевич': ['ТОО "Сырные Традиции"'], 'Черноиванова Марина': ['ИП  "Fawor"']}</t>
+          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ИП KETODRIVE KZ', 'ИП "SILA"', 'ТОО "Алга Экспресс"', 'ТОО "Fibonnacci VEG FOOD"'], 'Соловьев Дмитрий Николаевич': ['ТОО "Сырные Традиции"'], 'Черноиванова Марина': ['ИП  "Fawor"']}</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7806,7 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Багланов Ербол': ['ЧЛ Дорошенко', 'ЧЛ Аружан']}</t>
+          <t>Опасная позиция, проверить!: {'Багланов Ербол': ['ЧЛ Аружан', 'ЧЛ Дорошенко']}</t>
         </is>
       </c>
     </row>
@@ -7916,7 +7916,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ТОО "Fibonnacci VEG FOOD"', 'ТОО "LEAD PARTNERS"', 'ЧЛ Рима']}</t>
+          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ТОО "LEAD PARTNERS"', 'ЧЛ Рима', 'ТОО "Fibonnacci VEG FOOD"']}</t>
         </is>
       </c>
     </row>
@@ -8081,7 +8081,7 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО "АлмаСтор" менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -8411,7 +8411,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Манапов Толеген Ерланулы': ['ЧЛ Shanyraq sushi'], 'Черноиванова Марина': ['ИП "Adilya"', 'ИП Таскинбаева А.А.']}</t>
+          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП Таскинбаева А.А.', 'ИП "Adilya"'], 'Манапов Толеген Ерланулы': ['ЧЛ Shanyraq sushi']}</t>
         </is>
       </c>
     </row>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ИП Адильбекова (урюк) менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО "Office-Expert.kz" менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -8906,7 +8906,7 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Сулайманов Музафер Раимович': ['ИП "Кулинарный Рай"', 'ЧЛ Ернат'], 'Соловьев Дмитрий Николаевич': ['ТОО "Сырные Традиции"']}</t>
+          <t>Опасная позиция, проверить!: {'Сулайманов Музафер Раимович': ['ЧЛ Ернат', 'ИП "Кулинарный Рай"'], 'Соловьев Дмитрий Николаевич': ['ТОО "Сырные Традиции"']}</t>
         </is>
       </c>
     </row>
@@ -8961,7 +8961,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП  "Fawor"'], 'Махмутова Шахида Пархатовна': ['ИП "SILA"', 'ТОО BARUSH'], 'Сулайманов Музафер Раимович': ['ТОО "WOGAU SITY"']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ИП "SILA"', 'ТОО BARUSH'], 'Черноиванова Марина': ['ИП  "Fawor"'], 'Сулайманов Музафер Раимович': ['ТОО "WOGAU SITY"']}</t>
         </is>
       </c>
     </row>
@@ -9016,7 +9016,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ИП Шимченко А.А. менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ТОО "Fibonnacci VEG FOOD"', 'ЧЛ Лаура саше', 'ИП "SILA"'], 'Соловьев Дмитрий Николаевич': ['Alterra Inn']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ИП "SILA"', 'ЧЛ Лаура саше', 'ТОО "Fibonnacci VEG FOOD"'], 'Соловьев Дмитрий Николаевич': ['Alterra Inn']}</t>
         </is>
       </c>
     </row>
@@ -9236,7 +9236,7 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Соловьев Дмитрий Николаевич': ['ТОО "Sultan EX"'], 'Махмутова Шахида Пархатовна': ['TOO "Новая страна"']}</t>
+          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['TOO "Новая страна"'], 'Соловьев Дмитрий Николаевич': ['ТОО "Sultan EX"']}</t>
         </is>
       </c>
     </row>
@@ -9346,7 +9346,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ЧЛ Алия рыбалка', 'ЧЛ Ахмет ведра'], 'Черноиванова Марина': ['ИП Шатманова'], 'Багланов Ербол': ['ЧЛ Бекмуратова Мереке Абдуллаевна'], 'Сулайманов Музафер Раимович': ['Чл Олеся магазин']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ЧЛ Ахмет ведра', 'ЧЛ Алия рыбалка'], 'Черноиванова Марина': ['ИП Шатманова'], 'Багланов Ербол': ['ЧЛ Бекмуратова Мереке Абдуллаевна'], 'Сулайманов Музафер Раимович': ['Чл Олеся магазин']}</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['Ирмас Лтд ТОО', 'ТОО BARUSH'], 'Черноиванова Марина': ['ТОО Grand Food Street']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ТОО BARUSH', 'Ирмас Лтд ТОО'], 'Черноиванова Марина': ['ТОО Grand Food Street']}</t>
         </is>
       </c>
     </row>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ИП Таскинбаева А.А. менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -9896,7 +9896,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ Эдик менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -10171,7 +10171,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Черноиванова Марина': ['ИП "Гарант Сервис"'], 'Соловьев Дмитрий Николаевич': ['ТОО "LA TARTINE"']}</t>
+          <t>Проверить заказы: {'Соловьев Дмитрий Николаевич': ['ТОО "LA TARTINE"'], 'Черноиванова Марина': ['ИП "Гарант Сервис"']}</t>
         </is>
       </c>
     </row>
@@ -10446,7 +10446,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Соловьев Дмитрий Николаевич': ['ТОО "Табыс Дистрибьюшн"'], 'Махмутова Шахида Пархатовна': ['ТОО "ДАНАРИ"'], 'Черноиванова Марина': ['Чл Аркадий ресторан Улыбка Балхаш']}</t>
+          <t>Опасная позиция, проверить!: {'Соловьев Дмитрий Николаевич': ['ТОО "Табыс Дистрибьюшн"'], 'Черноиванова Марина': ['Чл Аркадий ресторан Улыбка Балхаш'], 'Махмутова Шахида Пархатовна': ['ТОО "ДАНАРИ"']}</t>
         </is>
       </c>
     </row>
@@ -10886,7 +10886,7 @@
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Соловьев Дмитрий Николаевич': ['ТОО "Sultan EX"'], 'Махмутова Шахида Пархатовна': ['TOO "Новая страна"']}</t>
+          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['TOO "Новая страна"'], 'Соловьев Дмитрий Николаевич': ['ТОО "Sultan EX"']}</t>
         </is>
       </c>
     </row>
@@ -10996,7 +10996,7 @@
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ТОО Табея', 'Ирмас Лтд ТОО']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['Ирмас Лтд ТОО', 'ТОО Табея']}</t>
         </is>
       </c>
     </row>
@@ -11051,7 +11051,7 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО "Greno" менеджера Сулайманов Музафер Раимович</t>
         </is>
       </c>
     </row>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ЧЛ Алена BISON', 'ИП Шимченко А.А.', 'ТОО "LEAD PARTNERS"', 'ТОО "Fibonnacci VEG FOOD"'], 'Сулайманов Музафер Раимович': ['ЧЛ Асет']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ТОО "LEAD PARTNERS"', 'ИП Шимченко А.А.', 'ЧЛ Алена BISON', 'ТОО "Fibonnacci VEG FOOD"'], 'Сулайманов Музафер Раимович': ['ЧЛ Асет']}</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ТОО "Fibonnacci VEG FOOD"', 'ИП KETODRIVE KZ', 'ИП Шимченко А.А.'], 'Черноиванова Марина': ['ИП "DETOXME"', 'Chaplin кинотеатр', 'ЧЛ ПРОРосток']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ИП KETODRIVE KZ', 'ИП Шимченко А.А.', 'ТОО "Fibonnacci VEG FOOD"'], 'Черноиванова Марина': ['ЧЛ ПРОРосток', 'ИП "DETOXME"', 'Chaplin кинотеатр']}</t>
         </is>
       </c>
     </row>
@@ -11326,7 +11326,7 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ТОО "Fibonnacci VEG FOOD"', 'Филиал ТОО "Корпорация Казахмыс" в городе Алматы', 'ТОО "Алга Экспресс"', 'Ирмас Лтд ТОО'], 'Сулайманов Музафер Раимович': ['ЧЛ Асет']}</t>
+          <t>Опасная позиция, проверить!: {'Сулайманов Музафер Раимович': ['ЧЛ Асет'], 'Махмутова Шахида Пархатовна': ['Ирмас Лтд ТОО', 'Филиал ТОО "Корпорация Казахмыс" в городе Алматы', 'ТОО "Fibonnacci VEG FOOD"', 'ТОО "Алга Экспресс"']}</t>
         </is>
       </c>
     </row>
@@ -11381,7 +11381,7 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ЧЛ Алия рыбалка'], 'Сулайманов Музафер Раимович': ['ЧЛ Асет']}</t>
+          <t>Опасная позиция, проверить!: {'Сулайманов Музафер Раимович': ['ЧЛ Асет'], 'Махмутова Шахида Пархатовна': ['ЧЛ Алия рыбалка']}</t>
         </is>
       </c>
     </row>
@@ -11436,7 +11436,7 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Соловьев Дмитрий Николаевич': ['ЧЛ Рома Ж'], 'Сулайманов Музафер Раимович': ['ЧЛ Алтынбаева Нургуль'], 'Былина Евгения Николаевна': ['ЧЛ Сотрудники'], 'Махмутова Шахида Пархатовна': ['ЧЛ Айдын салфетки'], 'Багланов Ербол': ['ЧЛ Алишер Кофейня']}</t>
+          <t>Опасная позиция, проверить!: {'Багланов Ербол': ['ЧЛ Алишер Кофейня'], 'Былина Евгения Николаевна': ['ЧЛ Сотрудники'], 'Махмутова Шахида Пархатовна': ['ЧЛ Айдын салфетки'], 'Соловьев Дмитрий Николаевич': ['ЧЛ Рома Ж'], 'Сулайманов Музафер Раимович': ['ЧЛ Алтынбаева Нургуль']}</t>
         </is>
       </c>
     </row>
@@ -12151,7 +12151,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ИП Климук Светлана Сергеевна', 'Ирмас Лтд ТОО', 'ТОО SmartPack'], 'Сулайманов Музафер Раимович': ['ТОО "Али- Ди Алматы"'], 'Черноиванова Марина': ['ЧЛ Павел Кофейня']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['Ирмас Лтд ТОО', 'ИП Климук Светлана Сергеевна', 'ТОО SmartPack'], 'Сулайманов Музафер Раимович': ['ТОО "Али- Ди Алматы"'], 'Черноиванова Марина': ['ЧЛ Павел Кофейня']}</t>
         </is>
       </c>
     </row>
@@ -12316,7 +12316,7 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ Арай Адал менеджера Сулайманов Музафер Раимович</t>
         </is>
       </c>
     </row>
@@ -12536,7 +12536,7 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ Абуов Алмат Саудакент менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -12591,7 +12591,7 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП Таскинбаева А.А.', 'ИП "Adilya"', 'Chaplin кинотеатр', 'ТОО "Grand Fast Food"'], 'Махмутова Шахида Пархатовна': ['COFFEEVARKA Kazakhstan', 'ИП VEND CLUB', 'ИП Климук Светлана Сергеевна']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ИП Климук Светлана Сергеевна', 'ИП VEND CLUB', 'COFFEEVARKA Kazakhstan'], 'Черноиванова Марина': ['ТОО "Grand Fast Food"', 'Chaplin кинотеатр', 'ИП Таскинбаева А.А.', 'ИП "Adilya"']}</t>
         </is>
       </c>
     </row>
@@ -12646,7 +12646,7 @@
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО "Greno" менеджера Сулайманов Музафер Раимович</t>
         </is>
       </c>
     </row>
@@ -12811,7 +12811,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ТОО Табея', 'ИП Климук Светлана Сергеевна', 'ТОО Kubarik.kz']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ИП Климук Светлана Сергеевна', 'ТОО Kubarik.kz', 'ТОО Табея']}</t>
         </is>
       </c>
     </row>
@@ -12866,7 +12866,7 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Черноиванова Марина': ['ИП КУЛИНАРНАЯ МАСТЕРСКАЯ ВЕРЫ БОГЕР'], 'Махмутова Шахида Пархатовна': ['ЧЛ Лаура саше']}</t>
+          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ЧЛ Лаура саше'], 'Черноиванова Марина': ['ИП КУЛИНАРНАЯ МАСТЕРСКАЯ ВЕРЫ БОГЕР']}</t>
         </is>
       </c>
     </row>
@@ -13031,7 +13031,7 @@
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО АЯМ менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -13306,7 +13306,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента Chaplin кинотеатр менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ Турсунова менеджера Багланов Ербол</t>
         </is>
       </c>
     </row>
@@ -13581,7 +13581,7 @@
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Черноиванова Марина': ['ЧЛ Митителу Эльмира'], 'Махмутова Шахида Пархатовна': ['ИП Гончаров Роман Алексеевич']}</t>
+          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ИП Гончаров Роман Алексеевич'], 'Черноиванова Марина': ['ЧЛ Митителу Эльмира']}</t>
         </is>
       </c>
     </row>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП Шатманова', 'ЧЛ Боранбаев Алиби Канатулы'], 'Багланов Ербол': ['ЧЛ Адал Кофейня']}</t>
+          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ЧЛ Боранбаев Алиби Канатулы', 'ИП Шатманова'], 'Багланов Ербол': ['ЧЛ Адал Кофейня']}</t>
         </is>
       </c>
     </row>
@@ -13691,7 +13691,7 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Черноиванова Марина': ['ЧЛ Митителу Эльмира', 'Chaplin кинотеатр']}</t>
+          <t>Проверить заказы: {'Черноиванова Марина': ['Chaplin кинотеатр', 'ЧЛ Митителу Эльмира']}</t>
         </is>
       </c>
     </row>
@@ -13746,7 +13746,7 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ Сотрудники менеджера Былина Евгения Николаевна</t>
         </is>
       </c>
     </row>
@@ -13801,7 +13801,7 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО Парасат Продукт менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -13966,7 +13966,7 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ Сотрудники менеджера Былина Евгения Николаевна</t>
         </is>
       </c>
     </row>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП "Гарант Сервис"', 'ИП Таскинбаева А.А.']}</t>
+          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП Таскинбаева А.А.', 'ИП "Гарант Сервис"']}</t>
         </is>
       </c>
     </row>
@@ -14076,7 +14076,7 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Черноиванова Марина': ['Чл Аркадий ресторан Улыбка Балхаш'], 'Багланов Ербол': ['ЧЛ Турсунова'], 'Осетров Иван Александрович': ['ЧЛ Байса Билимкан']}</t>
+          <t>Проверить заказы: {'Черноиванова Марина': ['Чл Аркадий ресторан Улыбка Балхаш'], 'Осетров Иван Александрович': ['ЧЛ Байса Билимкан'], 'Багланов Ербол': ['ЧЛ Турсунова']}</t>
         </is>
       </c>
     </row>
@@ -14296,7 +14296,7 @@
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Соловьев Дмитрий Николаевич': ['ТОО "Sultan EX"'], 'Махмутова Шахида Пархатовна': ['ТОО SmartPack'], 'Черноиванова Марина': ['ИП Таскинбаева А.А.']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ТОО SmartPack'], 'Черноиванова Марина': ['ИП Таскинбаева А.А.'], 'Соловьев Дмитрий Николаевич': ['ТОО "Sultan EX"']}</t>
         </is>
       </c>
     </row>
@@ -14626,7 +14626,7 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП КУЛИНАРНАЯ МАСТЕРСКАЯ ВЕРЫ БОГЕР'], 'Махмутова Шахида Пархатовна': ['ЧЛ Лаура саше', 'ТОО "Гостиница Жетысу"', 'ТОО Kubarik.kz', 'TOO "TARY TURGEN"'], 'Соловьев Дмитрий Николаевич': ['ТОО "LA TARTINE"']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['TOO "TARY TURGEN"', 'ЧЛ Лаура саше', 'ТОО "Гостиница Жетысу"', 'ТОО Kubarik.kz'], 'Черноиванова Марина': ['ИП КУЛИНАРНАЯ МАСТЕРСКАЯ ВЕРЫ БОГЕР'], 'Соловьев Дмитрий Николаевич': ['ТОО "LA TARTINE"']}</t>
         </is>
       </c>
     </row>
@@ -14791,7 +14791,7 @@
       </c>
       <c r="M261" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ Абуов Алмат Саудакент менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -14901,7 +14901,7 @@
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Сулайманов Музафер Раимович': ['Arbuz Group (Арбуз Груп)'], 'Махмутова Шахида Пархатовна': ['ТОО Табея']}</t>
+          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ТОО Табея'], 'Сулайманов Музафер Раимович': ['Arbuz Group (Арбуз Груп)']}</t>
         </is>
       </c>
     </row>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП Шатманова', 'ЧЛ Улдаш Рыбный'], 'Махмутова Шахида Пархатовна': ['ЧЛ Гульнур Рыба', 'ИП Шимченко А.А.'], 'Багланов Ербол': ['ЧЛ Адал Кофейня', 'ЧЛ Дорошенко']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ИП Шимченко А.А.', 'ЧЛ Гульнур Рыба'], 'Багланов Ербол': ['ЧЛ Адал Кофейня', 'ЧЛ Дорошенко'], 'Черноиванова Марина': ['ИП Шатманова', 'ЧЛ Улдаш Рыбный']}</t>
         </is>
       </c>
     </row>
@@ -15616,7 +15616,7 @@
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП  "Fawor"'], 'Махмутова Шахида Пархатовна': ['ИП "SILA"', 'ТОО BARUSH'], 'Сулайманов Музафер Раимович': ['ТОО "WOGAU SITY"']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ИП "SILA"', 'ТОО BARUSH'], 'Черноиванова Марина': ['ИП  "Fawor"'], 'Сулайманов Музафер Раимович': ['ТОО "WOGAU SITY"']}</t>
         </is>
       </c>
     </row>
@@ -15671,7 +15671,7 @@
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ТОО "Airba Kitchen"'], 'Черноиванова Марина': ['ИП Таскинбаева А.А.']}</t>
+          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП Таскинбаева А.А.'], 'Махмутова Шахида Пархатовна': ['ТОО "Airba Kitchen"']}</t>
         </is>
       </c>
     </row>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ТОО "Fibonnacci VEG FOOD"'], 'Соловьев Дмитрий Николаевич': ['ИП Кошкаров']}</t>
+          <t>Проверить заказы: {'Соловьев Дмитрий Николаевич': ['ИП Кошкаров'], 'Махмутова Шахида Пархатовна': ['ТОО "Fibonnacci VEG FOOD"']}</t>
         </is>
       </c>
     </row>
@@ -16331,7 +16331,7 @@
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента Ирмас Лтд ТОО менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -16496,7 +16496,7 @@
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО "Maksfood" менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -16661,7 +16661,7 @@
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Сулайманов Музафер Раимович': ['Arbuz Group (Арбуз Груп)'], 'Махмутова Шахида Пархатовна': ['ИП "Хван"']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ИП "Хван"'], 'Сулайманов Музафер Раимович': ['Arbuz Group (Арбуз Груп)']}</t>
         </is>
       </c>
     </row>
@@ -16716,7 +16716,7 @@
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Сулайманов Музафер Раимович': ['Arbuz Group (Арбуз Груп)'], 'Махмутова Шахида Пархатовна': ['ИП "Хван"'], 'Соловьев Дмитрий Николаевич': ['ЧЛ Рома Ж']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ИП "Хван"'], 'Сулайманов Музафер Раимович': ['Arbuz Group (Арбуз Груп)'], 'Соловьев Дмитрий Николаевич': ['ЧЛ Рома Ж']}</t>
         </is>
       </c>
     </row>
@@ -16991,7 +16991,7 @@
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Сулайманов Музафер Раимович': ['Arbuz Group (Арбуз Груп)'], 'Махмутова Шахида Пархатовна': ['ТОО Табея']}</t>
+          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ТОО Табея'], 'Сулайманов Музафер Раимович': ['Arbuz Group (Арбуз Груп)']}</t>
         </is>
       </c>
     </row>
@@ -17046,7 +17046,7 @@
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ИП Адильбекова (урюк) менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -17211,7 +17211,7 @@
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ЧЛ Закир', 'ЧЛ Алия рыбалка'], 'Черноиванова Марина': ['ЧЛ Митителу Эльмира']}</t>
+          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ЧЛ Алия рыбалка', 'ЧЛ Закир'], 'Черноиванова Марина': ['ЧЛ Митителу Эльмира']}</t>
         </is>
       </c>
     </row>
@@ -17266,7 +17266,7 @@
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ЧЛ Закир'], 'Черноиванова Марина': ['ЧЛ Митителу Эльмира', 'ЧЛ Любовь Николаевна']}</t>
+          <t>Проверить заказы: {'Черноиванова Марина': ['ЧЛ Митителу Эльмира', 'ЧЛ Любовь Николаевна'], 'Махмутова Шахида Пархатовна': ['ЧЛ Закир']}</t>
         </is>
       </c>
     </row>
@@ -17321,7 +17321,7 @@
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ТОО SmartPack'], 'Сулайманов Музафер Раимович': ['Etipak Алматы ТОО'], 'Черноиванова Марина': ['ИП Таскинбаева А.А.']}</t>
+          <t>Опасная позиция, проверить!: {'Сулайманов Музафер Раимович': ['Etipak Алматы ТОО'], 'Махмутова Шахида Пархатовна': ['ТОО SmartPack'], 'Черноиванова Марина': ['ИП Таскинбаева А.А.']}</t>
         </is>
       </c>
     </row>
@@ -17541,7 +17541,7 @@
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ТОО "ДАНАРИ"'], 'Черноиванова Марина': ['Чл Аркадий ресторан Улыбка Балхаш']}</t>
+          <t>Проверить заказы: {'Черноиванова Марина': ['Чл Аркадий ресторан Улыбка Балхаш'], 'Махмутова Шахида Пархатовна': ['ТОО "ДАНАРИ"']}</t>
         </is>
       </c>
     </row>
@@ -17596,7 +17596,7 @@
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Черноиванова Марина': ['ИП Шатманова', 'ИП "DETOXME"'], 'Махмутова Шахида Пархатовна': ['ТОО Mfood.kz']}</t>
+          <t>Проверить заказы: {'Черноиванова Марина': ['ИП "DETOXME"', 'ИП Шатманова'], 'Махмутова Шахида Пархатовна': ['ТОО Mfood.kz']}</t>
         </is>
       </c>
     </row>
@@ -17651,7 +17651,7 @@
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП Шатманова'], 'Багланов Ербол': ['ЧЛ Адал Кофейня', 'ЧЛ Алишер Кофейня']}</t>
+          <t>Опасная позиция, проверить!: {'Багланов Ербол': ['ЧЛ Адал Кофейня', 'ЧЛ Алишер Кофейня'], 'Черноиванова Марина': ['ИП Шатманова']}</t>
         </is>
       </c>
     </row>
@@ -17816,7 +17816,7 @@
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Былина Евгения Николаевна': ['ЧЛ Милана'], 'Черноиванова Марина': ['ЧЛ Любовь Николаевна', 'ЧЛ Кадралина']}</t>
+          <t>Проверить заказы: {'Черноиванова Марина': ['ЧЛ Любовь Николаевна', 'ЧЛ Кадралина'], 'Былина Евгения Николаевна': ['ЧЛ Милана']}</t>
         </is>
       </c>
     </row>
@@ -17926,7 +17926,7 @@
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Былина Евгения Николаевна': ['ЧЛ Милана'], 'Черноиванова Марина': ['ЧЛ Любовь Николаевна']}</t>
+          <t>Проверить заказы: {'Черноиванова Марина': ['ЧЛ Любовь Николаевна'], 'Былина Евгения Николаевна': ['ЧЛ Милана']}</t>
         </is>
       </c>
     </row>
@@ -18091,7 +18091,7 @@
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ЧЛ Олжас', 'ТОО SmartPack'], 'Соловьев Дмитрий Николаевич': ['Retail Master Group']}</t>
+          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ТОО SmartPack', 'ЧЛ Олжас'], 'Соловьев Дмитрий Николаевич': ['Retail Master Group']}</t>
         </is>
       </c>
     </row>
@@ -18146,7 +18146,7 @@
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ЧЛ Закир', 'ЧЛ Алия рыбалка'], 'Черноиванова Марина': ['ЧЛ Митителу Эльмира']}</t>
+          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ЧЛ Алия рыбалка', 'ЧЛ Закир'], 'Черноиванова Марина': ['ЧЛ Митителу Эльмира']}</t>
         </is>
       </c>
     </row>
@@ -18256,7 +18256,7 @@
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ЧЛ Закир'], 'Черноиванова Марина': ['ЧЛ Митителу Эльмира', 'ЧЛ Любовь Николаевна']}</t>
+          <t>Проверить заказы: {'Черноиванова Марина': ['ЧЛ Митителу Эльмира', 'ЧЛ Любовь Николаевна'], 'Махмутова Шахида Пархатовна': ['ЧЛ Закир']}</t>
         </is>
       </c>
     </row>
@@ -18916,7 +18916,7 @@
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО "Zhamilya Trade Company" менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -19301,7 +19301,7 @@
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Сулайманов Музафер Раимович': ['TOO "Наш пакет"'], 'Черноиванова Марина': ['ТОО "Zhamilya Trade Company"']}</t>
+          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ТОО "Zhamilya Trade Company"'], 'Сулайманов Музафер Раимович': ['TOO "Наш пакет"']}</t>
         </is>
       </c>
     </row>
@@ -19521,7 +19521,7 @@
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП Шатманова'], 'Багланов Ербол': ['ЧЛ Адал Кофейня', 'ЧЛ Алишер Кофейня']}</t>
+          <t>Опасная позиция, проверить!: {'Багланов Ербол': ['ЧЛ Адал Кофейня', 'ЧЛ Алишер Кофейня'], 'Черноиванова Марина': ['ИП Шатманова']}</t>
         </is>
       </c>
     </row>
@@ -19686,7 +19686,7 @@
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО BARUSH менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -19851,7 +19851,7 @@
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента TOO "Новая страна" менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -20016,7 +20016,7 @@
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ЧЛ Лаура саше', 'TOO "TARY TURGEN"']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['TOO "TARY TURGEN"', 'ЧЛ Лаура саше']}</t>
         </is>
       </c>
     </row>
@@ -20071,7 +20071,7 @@
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента Ирмас Лтд ТОО менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -20126,7 +20126,7 @@
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ТОО"S&amp;A capital"'], 'Черноиванова Марина': ['ИП Калтаев']}</t>
+          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП Калтаев'], 'Махмутова Шахида Пархатовна': ['ТОО"S&amp;A capital"']}</t>
         </is>
       </c>
     </row>
@@ -20346,7 +20346,7 @@
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента Ирмас Лтд ТОО менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -20401,7 +20401,7 @@
       </c>
       <c r="M363" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента Ирмас Лтд ТОО менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -20511,7 +20511,7 @@
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента Ирмас Лтд ТОО менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -20841,7 +20841,7 @@
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Сулайманов Музафер Раимович': ['ЧЛ Тамирис', 'ЧЛ Зина'], 'Махмутова Шахида Пархатовна': ['ЧЛ Дмитрий ЧЛ Дмитрий'], 'Багланов Ербол': ['ЧЛ Адал Кофейня']}</t>
+          <t>Опасная позиция, проверить!: {'Сулайманов Музафер Раимович': ['ЧЛ Зина', 'ЧЛ Тамирис'], 'Багланов Ербол': ['ЧЛ Адал Кофейня'], 'Махмутова Шахида Пархатовна': ['ЧЛ Дмитрий ЧЛ Дмитрий']}</t>
         </is>
       </c>
     </row>
@@ -20896,7 +20896,7 @@
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Сулайманов Музафер Раимович': ['ЧЛ Зина'], 'Багланов Ербол': ['ЧЛ Адал Кофейня']}</t>
+          <t>Опасная позиция, проверить!: {'Багланов Ербол': ['ЧЛ Адал Кофейня'], 'Сулайманов Музафер Раимович': ['ЧЛ Зина']}</t>
         </is>
       </c>
     </row>
@@ -20951,7 +20951,7 @@
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО "Zhamilya Trade Company" менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -21061,7 +21061,7 @@
       </c>
       <c r="M375" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО "Гелиос" менеджера Соловьев Дмитрий Николаевич</t>
         </is>
       </c>
     </row>
@@ -21226,7 +21226,7 @@
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['Chaplin кинотеатр', 'ЧЛ Вероника Вероника', 'ИП  "Fawor"', 'ИП Шатманова'], 'Соловьев Дмитрий Николаевич': ['Черный Принц &amp; Черный Граф']}</t>
+          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП Шатманова', 'ЧЛ Вероника Вероника', 'ИП  "Fawor"', 'Chaplin кинотеатр'], 'Соловьев Дмитрий Николаевич': ['Черный Принц &amp; Черный Граф']}</t>
         </is>
       </c>
     </row>
@@ -21336,7 +21336,7 @@
       </c>
       <c r="M380" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента Chaplin кинотеатр менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -21666,7 +21666,7 @@
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО "АЛЬФА-ЛАБ" менеджера Сулайманов Музафер Раимович</t>
         </is>
       </c>
     </row>
@@ -21776,7 +21776,7 @@
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента Филиал ТОО "Корпорация Казахмыс" в городе Алматы менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -21831,7 +21831,7 @@
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента Филиал ТОО "Корпорация Казахмыс" в городе Алматы менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -21886,7 +21886,7 @@
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП Шатманова'], 'Багланов Ербол': ['ЧЛ Адал Кофейня', 'ЧЛ Бекмуратова Мереке Абдуллаевна'], 'Соловьев Дмитрий Николаевич': ['Чл Нина для себя']}</t>
+          <t>Опасная позиция, проверить!: {'Багланов Ербол': ['ЧЛ Бекмуратова Мереке Абдуллаевна', 'ЧЛ Адал Кофейня'], 'Черноиванова Марина': ['ИП Шатманова'], 'Соловьев Дмитрий Николаевич': ['Чл Нина для себя']}</t>
         </is>
       </c>
     </row>
@@ -21996,7 +21996,7 @@
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Багланов Ербол': ['ЧЛ Бекмуратова Мереке Абдуллаевна', 'ЧЛ Муратов Тилек Муратулы', 'ЧЛ Аружан']}</t>
+          <t>Опасная позиция, проверить!: {'Багланов Ербол': ['ЧЛ Аружан', 'ЧЛ Муратов Тилек Муратулы', 'ЧЛ Бекмуратова Мереке Абдуллаевна']}</t>
         </is>
       </c>
     </row>
@@ -22051,7 +22051,7 @@
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Багланов Ербол': ['ЧЛ Адал Кофейня', 'ЧЛ Дорошенко']}</t>
+          <t>Опасная позиция, проверить!: {'Багланов Ербол': ['ЧЛ Дорошенко', 'ЧЛ Адал Кофейня']}</t>
         </is>
       </c>
     </row>
@@ -22212,7 +22212,7 @@
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО "Гелиос" менеджера Соловьев Дмитрий Николаевич</t>
         </is>
       </c>
     </row>
@@ -22267,7 +22267,7 @@
       </c>
       <c r="M397" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента Ирмас Лтд ТОО менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -22320,7 +22320,7 @@
       </c>
       <c r="M398" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО Парасат Продукт менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -22375,7 +22375,7 @@
       </c>
       <c r="M399" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО "Zhamilya Trade Company" менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -22485,7 +22485,7 @@
       </c>
       <c r="M401" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента TOO "ХАВИ Казахстан" менеджера Былина Евгения Николаевна</t>
         </is>
       </c>
     </row>
@@ -22750,7 +22750,7 @@
       </c>
       <c r="M406" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента TOO "Новая страна" менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -22803,7 +22803,7 @@
       </c>
       <c r="M407" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента Ирмас Лтд ТОО менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="M411" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента TOO "Новая страна" менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -23072,7 +23072,7 @@
       </c>
       <c r="M412" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ Асет менеджера Сулайманов Музафер Раимович</t>
         </is>
       </c>
     </row>
@@ -23127,7 +23127,7 @@
       </c>
       <c r="M413" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ Асет менеджера Сулайманов Музафер Раимович</t>
         </is>
       </c>
     </row>
@@ -23180,7 +23180,7 @@
       </c>
       <c r="M414" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента TOO "King Kong Sushi" менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -23233,7 +23233,7 @@
       </c>
       <c r="M415" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента TOO "King Kong Sushi" менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -23286,7 +23286,7 @@
       </c>
       <c r="M416" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента TOO "ХАВИ Казахстан" менеджера Былина Евгения Николаевна</t>
         </is>
       </c>
     </row>
@@ -23339,7 +23339,7 @@
       </c>
       <c r="M417" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента TOO "ХАВИ Казахстан" менеджера Былина Евгения Николаевна</t>
         </is>
       </c>
     </row>
@@ -23392,7 +23392,7 @@
       </c>
       <c r="M418" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента TOO "ХАВИ Казахстан" менеджера Былина Евгения Николаевна</t>
         </is>
       </c>
     </row>
@@ -23445,7 +23445,7 @@
       </c>
       <c r="M419" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента TOO "ХАВИ Казахстан" менеджера Былина Евгения Николаевна</t>
         </is>
       </c>
     </row>
@@ -23500,7 +23500,7 @@
       </c>
       <c r="M420" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ УСЕНОВ НУРСУЛТАН менеджера Осетров Иван Александрович</t>
         </is>
       </c>
     </row>
@@ -23720,7 +23720,7 @@
       </c>
       <c r="M424" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Черноиванова Марина': ['ИП "Adilya"'], 'Махмутова Шахида Пархатовна': ['ТОО BARUSH', 'ТОО SmartPack', 'Ирмас Лтд ТОО'], 'Былина Евгения Николаевна': ['ЧЛ Сотрудники']}</t>
+          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ТОО BARUSH', 'ТОО SmartPack', 'Ирмас Лтд ТОО'], 'Черноиванова Марина': ['ИП "Adilya"'], 'Былина Евгения Николаевна': ['ЧЛ Сотрудники']}</t>
         </is>
       </c>
     </row>
@@ -23775,7 +23775,7 @@
       </c>
       <c r="M425" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ТОО SmartPack', 'Stakan.kz', 'ИП Климук Светлана Сергеевна', 'ТОО BARUSH'], 'Черноиванова Марина': ['ИП "Adilya"']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['Stakan.kz', 'ТОО SmartPack', 'ИП Климук Светлана Сергеевна', 'ТОО BARUSH'], 'Черноиванова Марина': ['ИП "Adilya"']}</t>
         </is>
       </c>
     </row>
@@ -24325,7 +24325,7 @@
       </c>
       <c r="M435" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП Таскинбаева А.А.'], 'Сулайманов Музафер Раимович': ['ЧЛ Ернат'], 'Махмутова Шахида Пархатовна': ['ТОО Kubarik.kz']}</t>
+          <t>Опасная позиция, проверить!: {'Сулайманов Музафер Раимович': ['ЧЛ Ернат'], 'Черноиванова Марина': ['ИП Таскинбаева А.А.'], 'Махмутова Шахида Пархатовна': ['ТОО Kubarik.kz']}</t>
         </is>
       </c>
     </row>
@@ -24600,7 +24600,7 @@
       </c>
       <c r="M440" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента Ирмас Лтд ТОО менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -24710,7 +24710,7 @@
       </c>
       <c r="M442" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента Ирмас Лтд ТОО менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -24765,7 +24765,7 @@
       </c>
       <c r="M443" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ТОО Magnum Cash&amp;Carry'], 'Махмутова Шахида Пархатовна': ['Ирмас Лтд ТОО']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['Ирмас Лтд ТОО'], 'Черноиванова Марина': ['ТОО Magnum Cash&amp;Carry']}</t>
         </is>
       </c>
     </row>
@@ -24820,7 +24820,7 @@
       </c>
       <c r="M444" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО Magnum Cash&amp;Carry менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -25095,7 +25095,7 @@
       </c>
       <c r="M449" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ИП Якуб О.А. менеджера Сулайманов Музафер Раимович</t>
         </is>
       </c>
     </row>
@@ -25150,7 +25150,7 @@
       </c>
       <c r="M450" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ИП Якуб О.А. менеджера Сулайманов Музафер Раимович</t>
         </is>
       </c>
     </row>
@@ -25205,7 +25205,7 @@
       </c>
       <c r="M451" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ Асет менеджера Сулайманов Музафер Раимович</t>
         </is>
       </c>
     </row>
@@ -25480,7 +25480,7 @@
       </c>
       <c r="M456" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ТОО Magnum Cash&amp;Carry', 'ИП "GORIZONT"'], 'Сулайманов Музафер Раимович': ['ЧЛ Асет'], 'Багланов Ербол': ['ЧЛ Бекмуратова Мереке Абдуллаевна', 'ЧЛ Дорошенко'], 'Соловьев Дмитрий Николаевич': ['ТОО "Барик KZ"'], 'Махмутова Шахида Пархатовна': ['ЧЛ Гульнур Рыба', 'ИП Савчиц Татьяна Александровна']}</t>
+          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП "GORIZONT"', 'ТОО Magnum Cash&amp;Carry'], 'Махмутова Шахида Пархатовна': ['ИП Савчиц Татьяна Александровна', 'ЧЛ Гульнур Рыба'], 'Багланов Ербол': ['ЧЛ Дорошенко', 'ЧЛ Бекмуратова Мереке Абдуллаевна'], 'Сулайманов Музафер Раимович': ['ЧЛ Асет'], 'Соловьев Дмитрий Николаевич': ['ТОО "Барик KZ"']}</t>
         </is>
       </c>
     </row>
@@ -25590,7 +25590,7 @@
       </c>
       <c r="M458" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ Асет менеджера Сулайманов Музафер Раимович</t>
         </is>
       </c>
     </row>
@@ -25975,7 +25975,7 @@
       </c>
       <c r="M465" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО Сабыржан Company менеджера Сулайманов Музафер Раимович</t>
         </is>
       </c>
     </row>
@@ -26360,7 +26360,7 @@
       </c>
       <c r="M472" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Былина Евгения Николаевна': ['ЧЛ Юлия'], 'Черноиванова Марина': ['ТОО "Office-Expert.kz"']}</t>
+          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ТОО "Office-Expert.kz"'], 'Былина Евгения Николаевна': ['ЧЛ Юлия']}</t>
         </is>
       </c>
     </row>
@@ -26415,7 +26415,7 @@
       </c>
       <c r="M473" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ТОО Табея', 'ЧЛ Айсулу', 'Ирмас Лтд ТОО']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['Ирмас Лтд ТОО', 'ЧЛ Айсулу', 'ТОО Табея']}</t>
         </is>
       </c>
     </row>
@@ -26470,7 +26470,7 @@
       </c>
       <c r="M474" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента Alterra Inn менеджера Соловьев Дмитрий Николаевич</t>
         </is>
       </c>
     </row>
@@ -26525,7 +26525,7 @@
       </c>
       <c r="M475" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента Alterra Inn менеджера Соловьев Дмитрий Николаевич</t>
         </is>
       </c>
     </row>
@@ -26635,7 +26635,7 @@
       </c>
       <c r="M477" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['Ирмас Лтд ТОО', 'ЧЛ Лаура саше', 'ИП Шимченко А.А.', 'TOO "TARY TURGEN"'], 'Сулайманов Музафер Раимович': ['Чл Наталья Буфет ОАЗИС']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['Ирмас Лтд ТОО', 'TOO "TARY TURGEN"', 'ЧЛ Лаура саше', 'ИП Шимченко А.А.'], 'Сулайманов Музафер Раимович': ['Чл Наталья Буфет ОАЗИС']}</t>
         </is>
       </c>
     </row>
@@ -27075,7 +27075,7 @@
       </c>
       <c r="M485" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['TOO KUNNES'], 'Черноиванова Марина': ['ИП Таскинбаева А.А.']}</t>
+          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП Таскинбаева А.А.'], 'Махмутова Шахида Пархатовна': ['TOO KUNNES']}</t>
         </is>
       </c>
     </row>
@@ -27130,7 +27130,7 @@
       </c>
       <c r="M486" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ИП Таскинбаева А.А. менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -27240,7 +27240,7 @@
       </c>
       <c r="M488" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ПИРАМИДА ТОО менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -27295,7 +27295,7 @@
       </c>
       <c r="M489" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ЧЛ Олжас менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -27460,7 +27460,7 @@
       </c>
       <c r="M492" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента TOO "Новая страна" менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -27515,7 +27515,7 @@
       </c>
       <c r="M493" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента TOO "Новая страна" менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -27570,7 +27570,7 @@
       </c>
       <c r="M494" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента Ирмас Лтд ТОО менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -27735,7 +27735,7 @@
       </c>
       <c r="M497" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Манапов Толеген Ерланулы': ['Чл Кадыр Комплекс обед'], 'Махмутова Шахида Пархатовна': ['ТОО "ДАНАРИ"']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ТОО "ДАНАРИ"'], 'Манапов Толеген Ерланулы': ['Чл Кадыр Комплекс обед']}</t>
         </is>
       </c>
     </row>
@@ -27790,7 +27790,7 @@
       </c>
       <c r="M498" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО Табея менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -27955,7 +27955,7 @@
       </c>
       <c r="M501" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента TOO "Новая страна" менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -28010,7 +28010,7 @@
       </c>
       <c r="M502" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Черноиванова Марина': ['ЧЛ Любовь Николаевна'], 'Сулайманов Музафер Раимович': ['ЧЛ Жадыра']}</t>
+          <t>Проверить заказы: {'Сулайманов Музафер Раимович': ['ЧЛ Жадыра'], 'Черноиванова Марина': ['ЧЛ Любовь Николаевна']}</t>
         </is>
       </c>
     </row>
@@ -28065,7 +28065,7 @@
       </c>
       <c r="M503" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Сулайманов Музафер Раимович': ['ИП "Кулинарный Рай"'], 'Черноиванова Марина': ['ИП Таскинбаева А.А.', 'ИП Шатманова'], 'Соловьев Дмитрий Николаевич': ['ЧЛ Еркеш посуда']}</t>
+          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП Таскинбаева А.А.', 'ИП Шатманова'], 'Сулайманов Музафер Раимович': ['ИП "Кулинарный Рай"'], 'Соловьев Дмитрий Николаевич': ['ЧЛ Еркеш посуда']}</t>
         </is>
       </c>
     </row>
@@ -28120,7 +28120,7 @@
       </c>
       <c r="M504" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Сулайманов Музафер Раимович': ['ТОО "Арминаж"'], 'Махмутова Шахида Пархатовна': ['ТОО "Алга Экспресс"'], 'Черноиванова Марина': ['ИП Таскинбаева А.А.']}</t>
+          <t>Опасная позиция, проверить!: {'Сулайманов Музафер Раимович': ['ТОО "Арминаж"'], 'Черноиванова Марина': ['ИП Таскинбаева А.А.'], 'Махмутова Шахида Пархатовна': ['ТОО "Алга Экспресс"']}</t>
         </is>
       </c>
     </row>
@@ -28230,7 +28230,7 @@
       </c>
       <c r="M506" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента TOO "Новая страна" менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -28340,7 +28340,7 @@
       </c>
       <c r="M508" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО Magnum Cash&amp;Carry менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -28505,7 +28505,7 @@
       </c>
       <c r="M511" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Манапов Толеген Ерланулы': ['ЧЛ Shanyraq sushi'], 'Махмутова Шахида Пархатовна': ['ЧЛ Елена', 'ТОО "Fibonnacci VEG FOOD"', 'ИП Абдуллаев'], 'Черноиванова Марина': ['ИП Таскинбаева А.А.']}</t>
+          <t>Проверить заказы: {'Махмутова Шахида Пархатовна': ['ИП Абдуллаев', 'ТОО "Fibonnacci VEG FOOD"', 'ЧЛ Елена'], 'Манапов Толеген Ерланулы': ['ЧЛ Shanyraq sushi'], 'Черноиванова Марина': ['ИП Таскинбаева А.А.']}</t>
         </is>
       </c>
     </row>
@@ -28725,7 +28725,7 @@
       </c>
       <c r="M515" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ЧЛ Алена BISON'], 'Соловьев Дмитрий Николаевич': ['Чл Нина для себя'], 'Сулайманов Музафер Раимович': ['Общественная  Организация "Хабад Любавич"']}</t>
+          <t>Опасная позиция, проверить!: {'Сулайманов Музафер Раимович': ['Общественная  Организация "Хабад Любавич"'], 'Махмутова Шахида Пархатовна': ['ЧЛ Алена BISON'], 'Соловьев Дмитрий Николаевич': ['Чл Нина для себя']}</t>
         </is>
       </c>
     </row>
@@ -28780,7 +28780,7 @@
       </c>
       <c r="M516" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП Таскинбаева А.А.'], 'Сулайманов Музафер Раимович': ['Общественная  Организация "Хабад Любавич"'], 'Махмутова Шахида Пархатовна': ['ТОО BARUSH']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ТОО BARUSH'], 'Сулайманов Музафер Раимович': ['Общественная  Организация "Хабад Любавич"'], 'Черноиванова Марина': ['ИП Таскинбаева А.А.']}</t>
         </is>
       </c>
     </row>
@@ -28835,7 +28835,7 @@
       </c>
       <c r="M517" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ИП "Дзауров"', 'Ирмас Лтд ТОО', 'TOO "Новая страна"']}</t>
+          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['Ирмас Лтд ТОО', 'TOO "Новая страна"', 'ИП "Дзауров"']}</t>
         </is>
       </c>
     </row>
@@ -28945,7 +28945,7 @@
       </c>
       <c r="M519" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО Magnum Cash&amp;Carry менеджера Черноиванова Марина</t>
         </is>
       </c>
     </row>
@@ -29055,7 +29055,7 @@
       </c>
       <c r="M521" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['ТОО "Алга Экспресс"'], 'Былина Евгения Николаевна': ['TOO "ХАВИ Казахстан"']}</t>
+          <t>Опасная позиция, проверить!: {'Былина Евгения Николаевна': ['TOO "ХАВИ Казахстан"'], 'Махмутова Шахида Пархатовна': ['ТОО "Алга Экспресс"']}</t>
         </is>
       </c>
     </row>
@@ -29110,7 +29110,7 @@
       </c>
       <c r="M522" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента TOO "ХАВИ Казахстан" менеджера Былина Евгения Николаевна</t>
         </is>
       </c>
     </row>
@@ -29220,7 +29220,7 @@
       </c>
       <c r="M524" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ИП "SARANG"', 'ИП КУЛИНАРНАЯ МАСТЕРСКАЯ ВЕРЫ БОГЕР'], 'Соловьев Дмитрий Николаевич': ['Сабиржанов Р.Р.'], 'Сулайманов Музафер Раимович': ['Etipak Алматы ТОО']}</t>
+          <t>Опасная позиция, проверить!: {'Сулайманов Музафер Раимович': ['Etipak Алматы ТОО'], 'Соловьев Дмитрий Николаевич': ['Сабиржанов Р.Р.'], 'Черноиванова Марина': ['ИП "SARANG"', 'ИП КУЛИНАРНАЯ МАСТЕРСКАЯ ВЕРЫ БОГЕР']}</t>
         </is>
       </c>
     </row>
@@ -29385,7 +29385,7 @@
       </c>
       <c r="M527" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента TOO "Новая страна" менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -29550,7 +29550,7 @@
       </c>
       <c r="M530" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО АЯМ менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -29605,7 +29605,7 @@
       </c>
       <c r="M531" t="inlineStr">
         <is>
-          <t>Проверить заказы: {'Черноиванова Марина': ['Chaplin кинотеатр'], 'Сулайманов Музафер Раимович': ['ТОО "Буфет Комильфо"'], 'Былина Евгения Николаевна': ['ЧЛ Сотрудники'], 'Махмутова Шахида Пархатовна': ['TOO "Новая страна"']}</t>
+          <t>Проверить заказы: {'Сулайманов Музафер Раимович': ['ТОО "Буфет Комильфо"'], 'Черноиванова Марина': ['Chaplin кинотеатр'], 'Былина Евгения Николаевна': ['ЧЛ Сотрудники'], 'Махмутова Шахида Пархатовна': ['TOO "Новая страна"']}</t>
         </is>
       </c>
     </row>
@@ -29660,7 +29660,7 @@
       </c>
       <c r="M532" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ИП Platinum Sharks 2.0 менеджера Сулайманов Музафер Раимович</t>
         </is>
       </c>
     </row>
@@ -29825,7 +29825,7 @@
       </c>
       <c r="M535" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Сулайманов Музафер Раимович': ['ТОО KOKETAI'], 'Махмутова Шахида Пархатовна': ['TOO "DOSSMarket"'], 'Черноиванова Марина': ['ТОО Grand Food Street']}</t>
+          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ТОО Grand Food Street'], 'Махмутова Шахида Пархатовна': ['TOO "DOSSMarket"'], 'Сулайманов Музафер Раимович': ['ТОО KOKETAI']}</t>
         </is>
       </c>
     </row>
@@ -30045,7 +30045,7 @@
       </c>
       <c r="M539" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента TOO "Новая страна" менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -30100,7 +30100,7 @@
       </c>
       <c r="M540" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента TOO "Новая страна" менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
@@ -30265,7 +30265,7 @@
       </c>
       <c r="M543" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО Сабыржан Company менеджера Сулайманов Музафер Раимович</t>
         </is>
       </c>
     </row>
@@ -30375,7 +30375,7 @@
       </c>
       <c r="M545" t="inlineStr">
         <is>
-          <t>Опасная позиция, проверить!: {'Махмутова Шахида Пархатовна': ['TOO "Новая страна"', 'ИП Гончаров Роман Алексеевич', 'ЧЛ Ержан для себя'], 'Черноиванова Марина': ['ТОО "Maksfood"']}</t>
+          <t>Опасная позиция, проверить!: {'Черноиванова Марина': ['ТОО "Maksfood"'], 'Махмутова Шахида Пархатовна': ['TOO "Новая страна"', 'ИП Гончаров Роман Алексеевич', 'ЧЛ Ержан для себя']}</t>
         </is>
       </c>
     </row>
@@ -30430,7 +30430,7 @@
       </c>
       <c r="M546" t="inlineStr">
         <is>
-          <t>Верить автозаказу</t>
+          <t>Верить автозаказу если сохраняются заказы клиента ТОО АЯМ менеджера Махмутова Шахида Пархатовна</t>
         </is>
       </c>
     </row>
